--- a/lib/config/data/motoya.dxracer.su.xlsx
+++ b/lib/config/data/motoya.dxracer.su.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imois\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SERVER\OpenServer\domains\host.loc\wa-apps\shop\plugins\pricelist\lib\config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Фотография</t>
   </si>
   <si>
     <t>Название</t>
-  </si>
-  <si>
-    <t>Размеры</t>
   </si>
   <si>
     <t>Оптовая цена</t>
@@ -120,34 +117,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -157,9 +138,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -170,9 +149,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -180,6 +157,34 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -195,30 +200,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,142 +550,139 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
